--- a/data/trans_dic/LAWTONB_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Estudios-trans_dic.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 33,5</t>
+          <t>24,8; 33,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,4; 35,75</t>
+          <t>26,16; 36,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 31,66</t>
+          <t>23,04; 32,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,61; 39,56</t>
+          <t>31,69; 39,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,48; 44,32</t>
+          <t>36,9; 44,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,34; 43,37</t>
+          <t>34,36; 43,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,85; 35,75</t>
+          <t>29,87; 35,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,7; 40,05</t>
+          <t>33,71; 39,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,02; 37,33</t>
+          <t>31,15; 37,32</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 24,67</t>
+          <t>9,72; 25,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,76; 25,55</t>
+          <t>10,23; 24,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 16,98</t>
+          <t>8,15; 17,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 35,04</t>
+          <t>12,01; 34,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 37,09</t>
+          <t>16,63; 37,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,01; 37,4</t>
+          <t>21,98; 36,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 25,25</t>
+          <t>12,93; 26,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 26,57</t>
+          <t>15,0; 27,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,05</t>
+          <t>15,97; 25,12</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 45,08</t>
+          <t>13,39; 46,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,96</t>
+          <t>0,0; 23,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 27,79</t>
+          <t>4,07; 25,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 62,09</t>
+          <t>26,41; 62,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 45,66</t>
+          <t>4,96; 42,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 48,02</t>
+          <t>8,96; 45,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 46,06</t>
+          <t>21,69; 45,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 26,17</t>
+          <t>4,47; 25,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 28,72</t>
+          <t>9,08; 29,27</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>23,12; 30,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,12; 31,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 24,37</t>
+          <t>18,07; 24,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,77; 38,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,66; 42,02</t>
+          <t>34,83; 42,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 39,51</t>
+          <t>32,31; 39,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,16; 33,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,66; 36,03</t>
+          <t>30,78; 36,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,95; 32,03</t>
+          <t>27,08; 32,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,8; 33,79</t>
+          <t>24,21; 33,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,16; 36,23</t>
+          <t>26,32; 35,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 32,01</t>
+          <t>22,72; 31,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 39,72</t>
+          <t>31,71; 39,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,9; 44,63</t>
+          <t>36,79; 44,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,36; 43,19</t>
+          <t>34,51; 43,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,87; 35,78</t>
+          <t>29,72; 35,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,71; 39,91</t>
+          <t>33,81; 40,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,15; 37,32</t>
+          <t>31,14; 37,48</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 25,54</t>
+          <t>9,39; 25,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 24,92</t>
+          <t>10,08; 25,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 17,41</t>
+          <t>8,27; 16,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 34,4</t>
+          <t>12,58; 33,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 37,44</t>
+          <t>15,91; 37,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,98; 36,26</t>
+          <t>21,92; 37,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 26,68</t>
+          <t>12,84; 25,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,0; 27,17</t>
+          <t>15,28; 26,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 25,12</t>
+          <t>16,18; 25,11</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 46,2</t>
+          <t>13,42; 45,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,14</t>
+          <t>0,0; 24,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 25,79</t>
+          <t>4,29; 26,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,41; 62,74</t>
+          <t>25,4; 62,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 42,23</t>
+          <t>4,95; 45,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 45,79</t>
+          <t>10,65; 45,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,69; 45,67</t>
+          <t>20,8; 44,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 25,61</t>
+          <t>6,08; 26,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 29,27</t>
+          <t>9,36; 29,59</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,51</t>
+          <t>22,54; 30,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,07</t>
+          <t>22,73; 31,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 24,23</t>
+          <t>17,95; 24,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,77; 38,03</t>
+          <t>30,8; 38,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,83; 42,15</t>
+          <t>34,42; 41,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,31; 39,57</t>
+          <t>31,77; 39,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 33,79</t>
+          <t>28,33; 33,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,05</t>
+          <t>30,62; 36,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,12</t>
+          <t>26,79; 31,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,21; 33,36</t>
+          <t>24,36; 33,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,32; 35,96</t>
+          <t>26,4; 35,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,72; 31,82</t>
+          <t>22,94; 31,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,71; 39,88</t>
+          <t>31,61; 39,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,79; 44,66</t>
+          <t>36,48; 44,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,51; 43,28</t>
+          <t>34,34; 43,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,72; 35,69</t>
+          <t>29,85; 35,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 40,03</t>
+          <t>33,7; 40,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 37,48</t>
+          <t>31,02; 37,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 25,11</t>
+          <t>9,79; 24,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 25,24</t>
+          <t>10,76; 25,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,82</t>
+          <t>7,92; 16,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 33,88</t>
+          <t>11,95; 35,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,91; 37,72</t>
+          <t>16,68; 37,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,92; 37,48</t>
+          <t>22,01; 37,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 25,93</t>
+          <t>12,78; 25,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 26,71</t>
+          <t>14,68; 26,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,11</t>
+          <t>16,18; 25,05</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,42; 45,02</t>
+          <t>13,33; 45,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,76</t>
+          <t>0,0; 24,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 26,21</t>
+          <t>4,16; 27,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,4; 62,73</t>
+          <t>25,43; 62,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 45,26</t>
+          <t>5,14; 45,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 45,94</t>
+          <t>9,82; 48,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,8; 44,62</t>
+          <t>20,78; 46,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 26,16</t>
+          <t>5,92; 26,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 29,59</t>
+          <t>8,61; 28,72</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,2</t>
+          <t>22,74; 30,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,12</t>
+          <t>22,85; 30,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 24,43</t>
+          <t>18,13; 24,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,09</t>
+          <t>30,92; 38,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,42; 41,73</t>
+          <t>34,66; 42,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,77; 39,69</t>
+          <t>32,14; 39,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 33,64</t>
+          <t>28,38; 33,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,62; 36,14</t>
+          <t>30,66; 36,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,79; 31,98</t>
+          <t>26,95; 32,03</t>
         </is>
       </c>
     </row>
